--- a/2022/Exemple/PT-SIB-2022-BancEssaiLamesTondeuse-Description-Notions.xlsx
+++ b/2022/Exemple/PT-SIB-2022-BancEssaiLamesTondeuse-Description-Notions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Analyse fonctionnelle et structurelle</t>
   </si>
@@ -143,6 +143,32 @@
   </si>
   <si>
     <t>Banc d'essai de lames de tondeuse à gazon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17 à Q23 : torseur de cohésion, diagramme des moments, dimensionnement en flexion.
+</t>
+  </si>
+  <si>
+    <t>Q1 à Q3, Transmission par adhérence (surface annulaire)
+Q4 à Q6 : dimensionnement d'ergots en cisaillement
+Q7, Q8 couple tranmsissible par une rondelle fusible. 
+Q13, Q14 : couple transmissible par un arbre
+Q24 à Q28 dimensionnement d'un arbre.
+Q36 à Q40 : dimensionnement d'un ressort.</t>
+  </si>
+  <si>
+    <t>Q41 et Q42 : calcul de jeu et d'angle de rotulage.</t>
+  </si>
+  <si>
+    <t>Q9 à Q12, PFD sur un axe fixe, choix d'un moteur. 
+Q15, Q16 : PFS sur anrbre (en vu d'une étude RdM)
+Q29 à Q35 énergie nécessaire à l'éjection d'un pieu (calcul de masse, calcul de vitesse, calcul d'énergie cinétique)
+Q43 à Q46 statique "graphique".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q47 à Q50 : conception de liaison encastrement.
+Q51 à Q52 conception gâchette.
+Q53 à Q56 culasse et poussoir. </t>
   </si>
 </sst>
 </file>
@@ -656,7 +682,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -667,9 +693,10 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="9" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
     <col min="257" max="257" width="10.85546875" customWidth="1"/>
@@ -1508,7 +1535,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1521,17 +1548,27 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
